--- a/stat-auto-export-unit.xlsx
+++ b/stat-auto-export-unit.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F1078D-995A-4B0F-961C-D51ED24A35DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="3019">
   <si>
     <t>Asia</t>
   </si>
@@ -9077,14 +9095,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -9095,28 +9108,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -9406,137 +9431,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10" customWidth="true" style="0"/>
-    <col min="15" max="15" width="10" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10" customWidth="true" style="0"/>
-    <col min="18" max="18" width="10" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10" customWidth="true" style="0"/>
-    <col min="20" max="20" width="10" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10" customWidth="true" style="0"/>
-    <col min="22" max="22" width="10" customWidth="true" style="0"/>
-    <col min="23" max="23" width="10" customWidth="true" style="0"/>
-    <col min="24" max="24" width="10" customWidth="true" style="0"/>
-    <col min="25" max="25" width="10" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" customWidth="true" style="0"/>
-    <col min="27" max="27" width="10" customWidth="true" style="0"/>
-    <col min="28" max="28" width="10" customWidth="true" style="0"/>
-    <col min="29" max="29" width="10" customWidth="true" style="0"/>
-    <col min="30" max="30" width="10" customWidth="true" style="0"/>
-    <col min="31" max="31" width="10" customWidth="true" style="0"/>
-    <col min="32" max="32" width="10" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10" customWidth="true" style="0"/>
-    <col min="34" max="34" width="10" customWidth="true" style="0"/>
-    <col min="35" max="35" width="10" customWidth="true" style="0"/>
-    <col min="36" max="36" width="10" customWidth="true" style="0"/>
-    <col min="37" max="37" width="10" customWidth="true" style="0"/>
-    <col min="38" max="38" width="10" customWidth="true" style="0"/>
-    <col min="39" max="39" width="10" customWidth="true" style="0"/>
-    <col min="40" max="40" width="10" customWidth="true" style="0"/>
-    <col min="41" max="41" width="10" customWidth="true" style="0"/>
-    <col min="42" max="42" width="10" customWidth="true" style="0"/>
-    <col min="43" max="43" width="10" customWidth="true" style="0"/>
-    <col min="44" max="44" width="10" customWidth="true" style="0"/>
-    <col min="45" max="45" width="10" customWidth="true" style="0"/>
-    <col min="46" max="46" width="10" customWidth="true" style="0"/>
-    <col min="47" max="47" width="10" customWidth="true" style="0"/>
-    <col min="48" max="48" width="10" customWidth="true" style="0"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="48" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1" t="s">
+      <c r="J1" s="1" t="str">
+        <f t="shared" ref="J1:M1" si="0">I1</f>
+        <v>Australia,NZ &amp; Other Oceania</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Australia,NZ &amp; Other Oceania</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Australia,NZ &amp; Other Oceania</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Australia,NZ &amp; Other Oceania</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1" t="s">
+      <c r="O1" s="1" t="str">
+        <f t="shared" ref="O1:R1" si="1">N1</f>
+        <v>Middle East</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Middle East</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Middle East</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Middle East</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1" t="s">
+      <c r="T1" s="1" t="str">
+        <f t="shared" ref="T1:W1" si="2">S1</f>
+        <v>Africa</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Africa</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Africa</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Africa</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1" t="s">
+      <c r="Y1" s="1" t="str">
+        <f t="shared" ref="Y1:AB1" si="3">X1</f>
+        <v>Europe</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="AB1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1" t="s">
+      <c r="AD1" s="1" t="str">
+        <f t="shared" ref="AD1:AG1" si="4">AC1</f>
+        <v>Central &amp; South America</v>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Central &amp; South America</v>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Central &amp; South America</v>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Central &amp; South America</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AI1"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-      <c r="AL1"/>
-      <c r="AM1" t="s">
+      <c r="AI1" s="1" t="str">
+        <f t="shared" ref="AI1:AL1" si="5">AH1</f>
+        <v>North America</v>
+      </c>
+      <c r="AJ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>North America</v>
+      </c>
+      <c r="AK1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>North America</v>
+      </c>
+      <c r="AL1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>North America</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN1"/>
-      <c r="AO1"/>
-      <c r="AP1"/>
-      <c r="AQ1"/>
-      <c r="AR1" t="s">
+      <c r="AN1" s="1" t="str">
+        <f t="shared" ref="AN1:AQ1" si="6">AM1</f>
+        <v>Others</v>
+      </c>
+      <c r="AO1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Others</v>
+      </c>
+      <c r="AP1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Others</v>
+      </c>
+      <c r="AQ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Others</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AS1"/>
-      <c r="AT1"/>
-      <c r="AU1"/>
-      <c r="AV1"/>
+      <c r="AS1" s="1" t="str">
+        <f t="shared" ref="AS1:AV1" si="7">AR1</f>
+        <v>Total</v>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Total</v>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Total</v>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Total</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -9682,7 +9752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9828,7 +9898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9974,7 +10044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10120,7 +10190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10266,7 +10336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10412,7 +10482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10558,7 +10628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10704,7 +10774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10850,7 +10920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10996,7 +11066,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11142,7 +11212,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11288,7 +11358,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11434,7 +11504,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11580,7 +11650,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11726,7 +11796,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11872,7 +11942,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -12018,7 +12088,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -12164,7 +12234,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -12310,7 +12380,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12456,7 +12526,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12602,7 +12672,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12748,7 +12818,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12894,7 +12964,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -13040,7 +13110,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -13186,7 +13256,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -13332,7 +13402,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -13478,7 +13548,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -13624,7 +13694,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -13770,7 +13840,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -13916,7 +13986,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -14062,7 +14132,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -14208,7 +14278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -14354,7 +14424,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -14500,7 +14570,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -14646,7 +14716,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -14792,7 +14862,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -14938,7 +15008,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -15084,7 +15154,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -15230,7 +15300,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -15376,7 +15446,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -15522,7 +15592,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -15668,7 +15738,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -15814,7 +15884,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -15960,7 +16030,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -16106,7 +16176,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -16252,7 +16322,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -16398,7 +16468,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -16544,7 +16614,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -16690,7 +16760,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -16836,7 +16906,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -16982,7 +17052,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -17128,7 +17198,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -17274,7 +17344,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -17420,7 +17490,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -17566,7 +17636,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -17712,7 +17782,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -17858,7 +17928,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -18004,7 +18074,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -18150,7 +18220,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -18296,7 +18366,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -18442,7 +18512,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -18588,7 +18658,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -18734,7 +18804,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -18880,7 +18950,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -19026,7 +19096,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -19172,7 +19242,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -19318,7 +19388,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -19464,7 +19534,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -19610,7 +19680,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -19756,7 +19826,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -19902,7 +19972,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -20048,7 +20118,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -20194,7 +20264,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -20340,7 +20410,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -20486,7 +20556,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -20632,7 +20702,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -20778,7 +20848,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -20924,7 +20994,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -21070,7 +21140,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -21216,7 +21286,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="82" spans="1:48">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -21362,7 +21432,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="83" spans="1:48">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -21508,7 +21578,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -21654,7 +21724,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -21800,7 +21870,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -21946,7 +22016,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -22092,7 +22162,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -22238,7 +22308,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -22384,7 +22454,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -22530,7 +22600,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -22676,7 +22746,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -22822,7 +22892,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -22968,7 +23038,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -23114,7 +23184,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -23260,7 +23330,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -23406,7 +23476,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="97" spans="1:48">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -23552,7 +23622,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="98" spans="1:48">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -23698,7 +23768,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="99" spans="1:48">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -23844,7 +23914,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="100" spans="1:48">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -23990,7 +24060,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="101" spans="1:48">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -24136,7 +24206,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="102" spans="1:48">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -24282,7 +24352,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="103" spans="1:48">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -24428,7 +24498,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="104" spans="1:48">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -24574,7 +24644,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="105" spans="1:48">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -24720,7 +24790,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="106" spans="1:48">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -24866,7 +24936,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="107" spans="1:48">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -25012,7 +25082,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="108" spans="1:48">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -25158,7 +25228,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="109" spans="1:48">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -25304,7 +25374,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="110" spans="1:48">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -25450,7 +25520,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="111" spans="1:48">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -25596,7 +25666,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="112" spans="1:48">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -25742,7 +25812,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="113" spans="1:48">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -25888,7 +25958,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="114" spans="1:48">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -26034,7 +26104,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="115" spans="1:48">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -26180,7 +26250,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="116" spans="1:48">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -26326,7 +26396,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="117" spans="1:48">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -26472,7 +26542,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="118" spans="1:48">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -26618,7 +26688,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="119" spans="1:48">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -26764,7 +26834,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="120" spans="1:48">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -26910,7 +26980,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="121" spans="1:48">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -27056,7 +27126,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="122" spans="1:48">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -27202,7 +27272,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="123" spans="1:48">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -27348,7 +27418,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="124" spans="1:48">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -27494,7 +27564,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="125" spans="1:48">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -27640,7 +27710,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="126" spans="1:48">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -27786,7 +27856,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="127" spans="1:48">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -27932,7 +28002,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="128" spans="1:48">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -28078,7 +28148,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="129" spans="1:48">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -28224,7 +28294,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="130" spans="1:48">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -28370,7 +28440,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="131" spans="1:48">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -28516,7 +28586,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="132" spans="1:48">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -28662,7 +28732,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="133" spans="1:48">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -28808,7 +28878,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="134" spans="1:48">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -28954,9 +29024,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="135" spans="1:48">
-      <c r="A135"/>
-      <c r="B135"/>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>8</v>
       </c>
@@ -29097,17 +29165,18 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="9">
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>